--- a/_SMC/SMC Class Transitions.xlsx
+++ b/_SMC/SMC Class Transitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="0" windowWidth="20320" windowHeight="21220" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2740" yWindow="0" windowWidth="19460" windowHeight="15480" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mesic" sheetId="1" r:id="rId1"/>
@@ -629,8 +629,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,18 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -800,8 +794,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -847,6 +853,9 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -892,6 +901,9 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1223,9 +1235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2581,10 +2593,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="28">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2598,10 +2610,10 @@
       <c r="G2" s="15">
         <v>16</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="33" t="s">
         <v>65</v>
       </c>
       <c r="L2" s="15" t="s">
@@ -2617,8 +2629,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="28">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
@@ -2630,8 +2642,8 @@
       <c r="G3" s="15">
         <v>84</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="34"/>
       <c r="L3" s="15" t="s">
         <v>67</v>
       </c>
@@ -2645,8 +2657,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" thickBot="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="16" t="s">
         <v>51</v>
       </c>
@@ -2660,8 +2672,8 @@
         <v>80</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="38"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="16" t="s">
         <v>51</v>
       </c>
@@ -2677,8 +2689,8 @@
       <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16" ht="28">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -2688,8 +2700,8 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="38" t="s">
+      <c r="J5" s="32"/>
+      <c r="K5" s="34" t="s">
         <v>68</v>
       </c>
       <c r="L5" s="15" t="s">
@@ -2705,8 +2717,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="28">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="15" t="s">
         <v>67</v>
       </c>
@@ -2714,8 +2726,8 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="38"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="15" t="s">
         <v>67</v>
       </c>
@@ -2729,8 +2741,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16" thickBot="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="16" t="s">
         <v>51</v>
       </c>
@@ -2738,8 +2750,8 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="39"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="16" t="s">
         <v>51</v>
       </c>
@@ -2755,8 +2767,8 @@
       <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="28">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2766,10 +2778,10 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="33" t="s">
         <v>65</v>
       </c>
       <c r="L8" s="15" t="s">
@@ -2781,8 +2793,8 @@
       <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="28">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="15" t="s">
         <v>67</v>
       </c>
@@ -2790,8 +2802,8 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="38"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="15" t="s">
         <v>67</v>
       </c>
@@ -2801,8 +2813,8 @@
       <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="16" thickBot="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="16" t="s">
         <v>51</v>
       </c>
@@ -2810,8 +2822,8 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="39"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="16" t="s">
         <v>51</v>
       </c>
@@ -2821,10 +2833,10 @@
       <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="28">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -2836,8 +2848,8 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="28">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="15" t="s">
         <v>67</v>
       </c>
@@ -2847,8 +2859,8 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:16" ht="16" thickBot="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="16" t="s">
         <v>51</v>
       </c>
@@ -2859,7 +2871,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" thickBot="1"/>
     <row r="17" spans="1:6" ht="28">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="38" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -2879,7 +2891,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="29" thickBot="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="16" t="s">
         <v>78</v>
       </c>
@@ -2897,41 +2909,41 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:6" ht="16" thickBot="1">
-      <c r="A20" s="33"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -2945,9 +2957,9 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="15" t="s">
         <v>88</v>
       </c>
@@ -2959,9 +2971,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" thickBot="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="16" t="s">
         <v>84</v>
       </c>
@@ -2973,13 +2985,13 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -2988,30 +3000,30 @@
       <c r="E24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="38" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" thickBot="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="15" t="s">
@@ -3020,30 +3032,30 @@
       <c r="E26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="38" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" thickBot="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="33"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="38" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -3057,9 +3069,9 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="15" t="s">
         <v>88</v>
       </c>
@@ -3071,9 +3083,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="16" t="s">
         <v>84</v>
       </c>
@@ -3101,18 +3113,17 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
@@ -3121,17 +3132,18 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8612,7 +8624,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/_SMC/SMC Class Transitions.xlsx
+++ b/_SMC/SMC Class Transitions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="0" windowWidth="19460" windowHeight="15480" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="22220" yWindow="0" windowWidth="15520" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Mesic" sheetId="1" r:id="rId1"/>
-    <sheet name="Xeric" sheetId="11" r:id="rId2"/>
-    <sheet name="UM 2" sheetId="10" r:id="rId3"/>
-    <sheet name="ASP3" sheetId="13" r:id="rId4"/>
-    <sheet name="ASP4" sheetId="14" r:id="rId5"/>
+    <sheet name="#Mesic" sheetId="1" r:id="rId1"/>
+    <sheet name="#Xeric" sheetId="11" r:id="rId2"/>
+    <sheet name="#UM" sheetId="7" r:id="rId3"/>
+    <sheet name="#ASP4" sheetId="14" r:id="rId4"/>
+    <sheet name="ASP3" sheetId="13" r:id="rId5"/>
     <sheet name="ASP 2" sheetId="12" r:id="rId6"/>
-    <sheet name="Unproductive" sheetId="5" r:id="rId7"/>
-    <sheet name="UM" sheetId="7" r:id="rId8"/>
+    <sheet name="UM 2" sheetId="10" r:id="rId7"/>
+    <sheet name="Unproductive" sheetId="5" r:id="rId8"/>
     <sheet name="ASPW" sheetId="8" r:id="rId9"/>
     <sheet name="SMC Fire Intervals" sheetId="6" r:id="rId10"/>
     <sheet name="Crosswalks" sheetId="9" r:id="rId11"/>
@@ -629,8 +629,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -776,6 +782,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -794,20 +812,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -856,6 +862,9 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -904,6 +913,9 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1235,9 +1247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1245,8 +1257,8 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -1269,10 +1281,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1292,10 +1304,10 @@
         <v>66</v>
       </c>
       <c r="D2" s="6">
+        <v>130</v>
+      </c>
+      <c r="E2" s="6">
         <v>200</v>
-      </c>
-      <c r="E2" s="6">
-        <v>130</v>
       </c>
       <c r="F2" s="6">
         <v>285</v>
@@ -1312,10 +1324,10 @@
         <v>200</v>
       </c>
       <c r="D3" s="6">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6">
         <v>40</v>
-      </c>
-      <c r="E3" s="6">
-        <v>30</v>
       </c>
       <c r="F3" s="6">
         <v>35</v>
@@ -1335,10 +1347,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>55</v>
@@ -1355,10 +1367,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="11">
         <v>135</v>
@@ -1375,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6">
         <v>65</v>
-      </c>
-      <c r="E6" s="6">
-        <v>25</v>
       </c>
       <c r="F6" s="6">
         <v>15</v>
@@ -1414,11 +1426,11 @@
       </c>
       <c r="D9" s="7">
         <f>1/D2</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="E9" s="7">
         <f>1/E2</f>
-        <v>7.6923076923076927E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F9" s="7">
         <f>1/F2</f>
@@ -1439,11 +1451,11 @@
       </c>
       <c r="D10" s="7">
         <f>1/D3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E10" s="7">
         <f>1/E3</f>
-        <v>3.3333333333333333E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F10" s="7">
         <f>1/F3</f>
@@ -1485,11 +1497,11 @@
       </c>
       <c r="D12" s="7">
         <f>1/D3</f>
-        <v>2.5000000000000001E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E12" s="7">
         <f>1/E3</f>
-        <v>3.3333333333333333E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F12" s="7">
         <f>1/F3</f>
@@ -1513,11 +1525,11 @@
       </c>
       <c r="D13" s="7">
         <f>1/D6</f>
-        <v>1.5384615384615385E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E13" s="7">
         <f>1/E6</f>
-        <v>0.04</v>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="F13" s="7">
         <f>1/F6</f>
@@ -1542,11 +1554,11 @@
       </c>
       <c r="D14" s="7">
         <f>D9+D11</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="E14" s="7">
         <f>E9+E11</f>
-        <v>7.6923076923076927E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="7">
         <f>F9+F11</f>
@@ -1571,11 +1583,11 @@
       </c>
       <c r="D15" s="7">
         <f>D12+D13</f>
-        <v>4.0384615384615387E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="E15" s="7">
         <f>E12+E13</f>
-        <v>7.3333333333333334E-2</v>
+        <v>4.0384615384615387E-2</v>
       </c>
       <c r="F15" s="7">
         <f>F12+F13</f>
@@ -1610,11 +1622,11 @@
       </c>
       <c r="D17" s="7">
         <f>D9+D10+D13</f>
-        <v>4.5384615384615384E-2</v>
+        <v>8.1025641025641026E-2</v>
       </c>
       <c r="E17" s="7">
         <f>E9+E10+E13</f>
-        <v>8.1025641025641026E-2</v>
+        <v>4.5384615384615384E-2</v>
       </c>
       <c r="F17" s="7">
         <f>F9+F10+F13</f>
@@ -1625,7 +1637,7 @@
         <v>3.6068376068376068E-2</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" ref="H17" si="0">SUM(C17:G17)</f>
+        <f>SUM(C17:G17)</f>
         <v>0.28137701479806743</v>
       </c>
     </row>
@@ -1639,11 +1651,11 @@
       </c>
       <c r="D18" s="7">
         <f>D14+D15</f>
-        <v>4.5384615384615384E-2</v>
+        <v>8.1025641025641026E-2</v>
       </c>
       <c r="E18" s="7">
         <f>E14+E15</f>
-        <v>8.1025641025641026E-2</v>
+        <v>4.5384615384615384E-2</v>
       </c>
       <c r="F18" s="7">
         <f>F14+F15</f>
@@ -1685,11 +1697,11 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
-        <f>1/D3*(1/3)</f>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <f>1/E3*(1/3)</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
@@ -1698,11 +1710,11 @@
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <f>1/D3*(2/3)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <f>1/E3*(2/3)</f>
         <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1763,23 +1775,23 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:G34" si="1">C11/C14</f>
+        <f t="shared" ref="C33:G34" si="0">C11/C14</f>
         <v>0.24812030075187969</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f>D11/D14</f>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.65822784810126578</v>
       </c>
     </row>
@@ -1788,23 +1800,23 @@
         <v>28</v>
       </c>
       <c r="C34" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f>D12/D15</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
         <v>0.61904761904761907</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>0.45454545454545453</v>
-      </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.59701492537313428</v>
       </c>
     </row>
@@ -1827,23 +1839,23 @@
         <v>7.1617488606797022E-2</v>
       </c>
       <c r="D36" s="30">
-        <f t="shared" ref="D36:H36" si="2">D17/$H$17</f>
+        <f>D17/$H$17</f>
+        <v>0.28796112249534583</v>
+      </c>
+      <c r="E36" s="30">
+        <f>E17/$H$17</f>
         <v>0.16129467937239306</v>
       </c>
-      <c r="E36" s="30">
-        <f t="shared" si="2"/>
-        <v>0.28796112249534583</v>
-      </c>
       <c r="F36" s="30">
-        <f t="shared" si="2"/>
+        <f>F17/$H$17</f>
         <v>0.35094148411086928</v>
       </c>
       <c r="G36" s="30">
-        <f t="shared" si="2"/>
+        <f>G17/$H$17</f>
         <v>0.12818522541459487</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f>H17/$H$17</f>
         <v>1</v>
       </c>
       <c r="I36" s="8">
@@ -1861,18 +1873,18 @@
       </c>
       <c r="D37">
         <f>D14/D17</f>
-        <v>0.11016949152542373</v>
+        <v>9.49367088607595E-2</v>
       </c>
       <c r="E37">
         <f>E14/E17</f>
-        <v>9.49367088607595E-2</v>
+        <v>0.11016949152542373</v>
       </c>
       <c r="F37">
         <f>F14/F17</f>
         <v>3.5532994923857864E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="3">G14/G17</f>
+        <f t="shared" ref="G37" si="1">G14/G17</f>
         <v>0.31200631911532389</v>
       </c>
       <c r="H37">
@@ -1891,22 +1903,22 @@
       </c>
       <c r="D38">
         <f>D15/D17</f>
+        <v>0.90506329113924056</v>
+      </c>
+      <c r="E38">
+        <f>E15/E17</f>
         <v>0.88983050847457634</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ref="E38:G38" si="4">E15/E17</f>
-        <v>0.90506329113924056</v>
       </c>
       <c r="F38">
         <f>F15/F17</f>
         <v>0.96446700507614203</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G38" si="2">G15/G17</f>
         <v>0.68799368088467627</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38" si="5">H15/$H$15</f>
+        <f t="shared" ref="H38" si="3">H15/$H$15</f>
         <v>1</v>
       </c>
       <c r="I38" s="8"/>
@@ -1936,11 +1948,11 @@
       </c>
       <c r="D41">
         <f>D37</f>
-        <v>0.11016949152542373</v>
+        <v>9.49367088607595E-2</v>
       </c>
       <c r="E41">
         <f>E37</f>
-        <v>9.49367088607595E-2</v>
+        <v>0.11016949152542373</v>
       </c>
       <c r="F41">
         <f>F37</f>
@@ -1960,11 +1972,11 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f>(D13+D22)/D17</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>(E13+E22)/E17</f>
         <v>0.52259887005649719</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1981,13 +1993,13 @@
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="D43">
-        <f>D23/D17</f>
+      <c r="D43" s="7">
+        <f>D38</f>
+        <v>0.90506329113924056</v>
+      </c>
+      <c r="E43">
+        <f>E23/E17</f>
         <v>0.3672316384180791</v>
-      </c>
-      <c r="E43" s="7">
-        <f>E38</f>
-        <v>0.90506329113924056</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2054,11 +2066,11 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:F46" si="6">SUM(E41:E45)</f>
+        <f>SUM(E41:E45)</f>
         <v>1</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F46" si="4">SUM(F41:F45)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="G46">
@@ -2079,11 +2091,11 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <f>D42/D38</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>E42/E38</f>
         <v>0.58730158730158732</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2099,13 +2111,13 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="7">
         <f>D43/D38</f>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f>E43/E38</f>
         <v>0.41269841269841268</v>
-      </c>
-      <c r="E50" s="7">
-        <f>E43/E38</f>
-        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2166,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:G53" si="7">SUM(D49:D52)</f>
+        <f>SUM(D49:D52)</f>
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E53:G53" si="5">SUM(E49:E52)</f>
         <v>1</v>
       </c>
       <c r="F53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999978</v>
       </c>
     </row>
@@ -2190,10 +2202,10 @@
         <v>0.2</v>
       </c>
       <c r="D55">
+        <v>0.2</v>
+      </c>
+      <c r="E55">
         <v>0.15</v>
-      </c>
-      <c r="E55">
-        <v>0.2</v>
       </c>
       <c r="F55">
         <v>0.25</v>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="D57">
         <f>D17*D55</f>
-        <v>6.8076923076923071E-3</v>
+        <v>1.6205128205128205E-2</v>
       </c>
       <c r="E57">
         <f>E17*E55</f>
-        <v>1.6205128205128205E-2</v>
+        <v>6.8076923076923071E-3</v>
       </c>
       <c r="F57">
         <f>F17*F55</f>
@@ -2245,11 +2257,11 @@
       </c>
       <c r="D58">
         <f>D14*D55</f>
-        <v>7.5000000000000002E-4</v>
+        <v>1.5384615384615387E-3</v>
       </c>
       <c r="E58">
         <f>E14*E55</f>
-        <v>1.5384615384615387E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="F58">
         <f>F14*F55</f>
@@ -2278,11 +2290,11 @@
       </c>
       <c r="D59">
         <f>D15*D55</f>
-        <v>6.0576923076923082E-3</v>
+        <v>1.4666666666666668E-2</v>
       </c>
       <c r="E59">
         <f>E15*E55</f>
-        <v>1.4666666666666668E-2</v>
+        <v>6.0576923076923082E-3</v>
       </c>
       <c r="F59">
         <f>F15*F55</f>
@@ -2314,16 +2326,16 @@
       <c r="D62" t="s">
         <v>43</v>
       </c>
-      <c r="F62" t="s">
+      <c r="E62" t="s">
         <v>44</v>
       </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
       <c r="H62" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
-      </c>
-      <c r="J62" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2342,20 +2354,20 @@
         <f>C63/C68</f>
         <v>0.11608075182735816</v>
       </c>
-      <c r="F63">
-        <f>F68*D63</f>
+      <c r="E63">
+        <f>E68*D63</f>
         <v>6.8422076002498076E-3</v>
       </c>
-      <c r="H63">
+      <c r="G63">
         <f>H58</f>
         <v>9.4466698019329606E-3</v>
       </c>
+      <c r="H63">
+        <f>1/G63</f>
+        <v>105.85741017383521</v>
+      </c>
       <c r="I63">
-        <f>1/H63</f>
-        <v>105.85741017383521</v>
-      </c>
-      <c r="J63">
-        <f>H63/H68</f>
+        <f>G63/G68</f>
         <v>0.1602664807821883</v>
       </c>
     </row>
@@ -2364,7 +2376,7 @@
         <v>47</v>
       </c>
       <c r="B64" s="7">
-        <f t="shared" ref="B64:B68" si="8">1/C64</f>
+        <f t="shared" ref="B64:B68" si="6">1/C64</f>
         <v>45.004500450045008</v>
       </c>
       <c r="C64">
@@ -2374,29 +2386,29 @@
         <f>C64/C68</f>
         <v>0.38670379394361298</v>
       </c>
-      <c r="F64">
-        <f>F68*D64</f>
+      <c r="E64">
+        <f>E68*D64</f>
         <v>2.2793681091087068E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>48</v>
       </c>
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>49</v>
       </c>
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>50</v>
       </c>
       <c r="B67" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>35.001750087504377</v>
       </c>
       <c r="C67">
@@ -2406,29 +2418,29 @@
         <f>C67/C68</f>
         <v>0.49721545422902896</v>
       </c>
-      <c r="F67">
-        <f>F68*D67</f>
+      <c r="E67">
+        <f>E68*D67</f>
         <v>2.9307626857441836E-2</v>
       </c>
-      <c r="H67">
+      <c r="G67">
         <f>H59</f>
         <v>4.949684574684575E-2</v>
       </c>
+      <c r="H67">
+        <f>1/G67</f>
+        <v>20.203307602964301</v>
+      </c>
       <c r="I67">
-        <f>1/H67</f>
-        <v>20.203307602964301</v>
-      </c>
-      <c r="J67">
-        <f>H67/H68</f>
+        <f>G67/G68</f>
         <v>0.8397335192178117</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>51</v>
       </c>
       <c r="B68" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>17.40341106856944</v>
       </c>
       <c r="C68">
@@ -2438,24 +2450,24 @@
         <f>D63+D64+D67</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="F68">
+      <c r="E68">
         <f>H57</f>
         <v>5.8943515548778705E-2</v>
       </c>
+      <c r="G68">
+        <f>G63+G67</f>
+        <v>5.8943515548778712E-2</v>
+      </c>
       <c r="H68">
-        <f>H63+H67</f>
-        <v>5.8943515548778712E-2</v>
+        <f>1/G68</f>
+        <v>16.965394593277185</v>
       </c>
       <c r="I68">
-        <f>1/H68</f>
-        <v>16.965394593277185</v>
-      </c>
-      <c r="J68">
-        <f>J63+J67</f>
+        <f>I63+I67</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:9">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -2464,7 +2476,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:9">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2473,7 +2485,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:9">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2482,7 +2494,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:9">
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2491,7 +2503,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:9">
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2500,7 +2512,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:9">
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2509,7 +2521,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:9">
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2518,7 +2530,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:9">
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -2593,10 +2605,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="28">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2610,10 +2622,10 @@
       <c r="G2" s="15">
         <v>16</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="37" t="s">
         <v>65</v>
       </c>
       <c r="L2" s="15" t="s">
@@ -2629,8 +2641,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="28">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
@@ -2642,8 +2654,8 @@
       <c r="G3" s="15">
         <v>84</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="34"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="15" t="s">
         <v>67</v>
       </c>
@@ -2657,8 +2669,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" thickBot="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="16" t="s">
         <v>51</v>
       </c>
@@ -2672,8 +2684,8 @@
         <v>80</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="34"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="16" t="s">
         <v>51</v>
       </c>
@@ -2689,8 +2701,8 @@
       <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16" ht="28">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -2700,8 +2712,8 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="34" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="38" t="s">
         <v>68</v>
       </c>
       <c r="L5" s="15" t="s">
@@ -2717,8 +2729,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="28">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="15" t="s">
         <v>67</v>
       </c>
@@ -2726,8 +2738,8 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="34"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="38"/>
       <c r="L6" s="15" t="s">
         <v>67</v>
       </c>
@@ -2741,8 +2753,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16" thickBot="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="16" t="s">
         <v>51</v>
       </c>
@@ -2750,8 +2762,8 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="39"/>
       <c r="L7" s="16" t="s">
         <v>51</v>
       </c>
@@ -2767,8 +2779,8 @@
       <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="28">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -2778,10 +2790,10 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="37" t="s">
         <v>65</v>
       </c>
       <c r="L8" s="15" t="s">
@@ -2793,8 +2805,8 @@
       <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="28">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="15" t="s">
         <v>67</v>
       </c>
@@ -2802,8 +2814,8 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="34"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="15" t="s">
         <v>67</v>
       </c>
@@ -2813,8 +2825,8 @@
       <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="16" thickBot="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="16" t="s">
         <v>51</v>
       </c>
@@ -2822,8 +2834,8 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="16" t="s">
         <v>51</v>
       </c>
@@ -2833,10 +2845,10 @@
       <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="28">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -2848,8 +2860,8 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:16" ht="28">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="15" t="s">
         <v>67</v>
       </c>
@@ -2859,8 +2871,8 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:16" ht="16" thickBot="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="16" t="s">
         <v>51</v>
       </c>
@@ -2871,7 +2883,7 @@
     </row>
     <row r="16" spans="1:16" ht="16" thickBot="1"/>
     <row r="17" spans="1:6" ht="28">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="31" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -2891,7 +2903,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="29" thickBot="1">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="16" t="s">
         <v>78</v>
       </c>
@@ -2909,41 +2921,41 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="31" t="s">
         <v>91</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="16" thickBot="1">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -2957,9 +2969,9 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="15" t="s">
         <v>88</v>
       </c>
@@ -2971,9 +2983,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" thickBot="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="16" t="s">
         <v>84</v>
       </c>
@@ -2985,13 +2997,13 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -3000,30 +3012,30 @@
       <c r="E24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" thickBot="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="39"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D26" s="15" t="s">
@@ -3032,30 +3044,30 @@
       <c r="E26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="31" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" thickBot="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="31" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="15" t="s">
@@ -3069,9 +3081,9 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="15" t="s">
         <v>88</v>
       </c>
@@ -3083,9 +3095,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" thickBot="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="16" t="s">
         <v>84</v>
       </c>
@@ -3113,17 +3125,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
@@ -3132,18 +3145,17 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3297,9 +3309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3307,8 +3319,8 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
@@ -3331,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -3369,10 +3381,10 @@
         <v>50</v>
       </c>
       <c r="D2" s="6">
+        <v>315</v>
+      </c>
+      <c r="E2" s="6">
         <v>75</v>
-      </c>
-      <c r="E2" s="6">
-        <v>315</v>
       </c>
       <c r="F2" s="6">
         <v>1000</v>
@@ -3394,10 +3406,10 @@
         <v>200</v>
       </c>
       <c r="D3" s="6">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6">
         <v>20</v>
-      </c>
-      <c r="E3" s="6">
-        <v>30</v>
       </c>
       <c r="F3" s="6">
         <v>60</v>
@@ -3427,10 +3439,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>122</v>
@@ -3458,10 +3470,10 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>125</v>
@@ -3491,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
         <v>36</v>
-      </c>
-      <c r="E6" s="6">
-        <v>15</v>
       </c>
       <c r="F6" s="6">
         <v>11</v>
@@ -3561,11 +3573,11 @@
       </c>
       <c r="D9" s="7">
         <f>1/D2</f>
-        <v>1.3333333333333334E-2</v>
+        <v>3.1746031746031746E-3</v>
       </c>
       <c r="E9" s="7">
         <f>1/E2</f>
-        <v>3.1746031746031746E-3</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="F9" s="7">
         <f>1/F2</f>
@@ -3596,11 +3608,11 @@
       </c>
       <c r="D10" s="7">
         <f>1/D3</f>
-        <v>0.05</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E10" s="7">
         <f>1/E3</f>
-        <v>3.3333333333333333E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F10" s="7">
         <f>1/F3</f>
@@ -3630,11 +3642,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
         <f>1/30*0.17</f>
         <v>5.6666666666666671E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
       </c>
       <c r="F11" s="7">
         <f>1/60*0.05</f>
@@ -3665,12 +3677,12 @@
         <v>0</v>
       </c>
       <c r="D12" s="7">
+        <f>1/30*0.83</f>
+        <v>2.7666666666666666E-2</v>
+      </c>
+      <c r="E12" s="7">
         <f>1/20</f>
         <v>0.05</v>
-      </c>
-      <c r="E12" s="7">
-        <f>1/30*0.83</f>
-        <v>2.7666666666666666E-2</v>
       </c>
       <c r="F12" s="7">
         <f>1/60*0.95</f>
@@ -3697,11 +3709,11 @@
       </c>
       <c r="D13" s="7">
         <f>1/D6</f>
-        <v>2.7777777777777776E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E13" s="7">
         <f>1/E6</f>
-        <v>6.6666666666666666E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="F13" s="7">
         <f>1/F6</f>
@@ -3731,11 +3743,11 @@
       </c>
       <c r="D14" s="7">
         <f>D9+D11</f>
-        <v>1.3333333333333334E-2</v>
+        <v>8.8412698412698408E-3</v>
       </c>
       <c r="E14" s="7">
         <f>E9+E11</f>
-        <v>8.8412698412698408E-3</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="F14" s="7">
         <f>F9+F11</f>
@@ -3754,15 +3766,15 @@
         <v>40</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" ref="J14:M15" si="0">1/D14</f>
+        <f>1/E14</f>
         <v>75</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="0"/>
+        <f>1/D14</f>
         <v>113.10592459605027</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L14:M15" si="0">1/F14</f>
         <v>545.45454545454538</v>
       </c>
       <c r="M14" s="7">
@@ -3785,11 +3797,11 @@
       </c>
       <c r="D15" s="7">
         <f>D12+D13</f>
-        <v>7.7777777777777779E-2</v>
+        <v>9.4333333333333325E-2</v>
       </c>
       <c r="E15" s="7">
         <f>E12+E13</f>
-        <v>9.4333333333333325E-2</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="F15" s="7">
         <f>F12+F13</f>
@@ -3808,11 +3820,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="0"/>
+        <f>1/E15</f>
         <v>12.857142857142858</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="0"/>
+        <f>1/D15</f>
         <v>10.600706713780919</v>
       </c>
       <c r="L15" s="7">
@@ -3860,11 +3872,11 @@
       </c>
       <c r="D17" s="7">
         <f>D9+D10+D13</f>
-        <v>9.1111111111111115E-2</v>
+        <v>0.10317460317460317</v>
       </c>
       <c r="E17" s="7">
         <f>E9+E10+E13</f>
-        <v>0.10317460317460317</v>
+        <v>9.1111111111111115E-2</v>
       </c>
       <c r="F17" s="7">
         <f>F9+F10+F13</f>
@@ -3875,7 +3887,7 @@
         <v>6.0232683982683985E-2</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" ref="H17" si="1">SUM(C17:G17)</f>
+        <f>SUM(C17:G17)</f>
         <v>0.38809415584415585</v>
       </c>
       <c r="I17" s="7">
@@ -3883,19 +3895,19 @@
         <v>40</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" ref="J17:M17" si="2">1/D17</f>
+        <f>1/E17</f>
         <v>10.97560975609756</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="2"/>
+        <f>1/D17</f>
         <v>9.6923076923076934</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L17:M17" si="1">1/F17</f>
         <v>9.2101590845660066</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.602281915371485</v>
       </c>
       <c r="N17" s="7"/>
@@ -3918,11 +3930,11 @@
       </c>
       <c r="D18" s="7">
         <f>D14+D15</f>
-        <v>9.1111111111111115E-2</v>
+        <v>0.10317460317460317</v>
       </c>
       <c r="E18" s="7">
         <f>E14+E15</f>
-        <v>0.10317460317460317</v>
+        <v>9.1111111111111115E-2</v>
       </c>
       <c r="F18" s="7">
         <f>F14+F15</f>
@@ -3983,27 +3995,27 @@
         <f>C14/C17</f>
         <v>1</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f>D14/D17</f>
+        <v>8.5692307692307693E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <f>E14/E17</f>
         <v>0.14634146341463414</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" ref="E21:G21" si="3">E14/E17</f>
-        <v>8.5692307692307693E-2</v>
       </c>
       <c r="F21" s="7">
         <f>F14/F17</f>
         <v>1.6885291655037681E-2</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G21" si="2">G14/G17</f>
         <v>0.34093971790495015</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="5">
-        <f>(D10*0.5+D13)/D15</f>
+        <f>(E10*0.5+E13)/E15</f>
         <v>0.6785714285714286</v>
       </c>
       <c r="L21" s="7"/>
@@ -4025,11 +4037,11 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f>D12*0.5/D17</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>E12*0.5/E17</f>
         <v>0.27439024390243905</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4041,7 +4053,7 @@
         <v>2</v>
       </c>
       <c r="J22">
-        <f>(D10/2)/D15</f>
+        <f>(E10/2)/E15</f>
         <v>0.32142857142857145</v>
       </c>
       <c r="L22" s="7"/>
@@ -4063,12 +4075,12 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <f>((D12*0.5)+D13)/D17</f>
+        <f>D15/D17</f>
+        <v>0.91430769230769227</v>
+      </c>
+      <c r="E23">
+        <f>((E12*0.5)+E13)/E17</f>
         <v>0.57926829268292679</v>
-      </c>
-      <c r="E23">
-        <f>E15/E17</f>
-        <v>0.91430769230769227</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4097,7 +4109,7 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
@@ -4137,7 +4149,7 @@
       <c r="C25">
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" s="9">
@@ -4175,15 +4187,15 @@
         <v>1</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" ref="E26:G26" si="4">SUM(E21:E25)</f>
+        <f>SUM(E21:E25)</f>
         <v>1</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F26:G26" si="3">SUM(F21:F25)</f>
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L26" s="7"/>
@@ -4233,11 +4245,11 @@
       </c>
       <c r="D29" s="30">
         <f>D17/$H$17</f>
-        <v>0.23476548084815257</v>
+        <v>0.26584941211027729</v>
       </c>
       <c r="E29" s="30">
         <f>E17/$H$17</f>
-        <v>0.26584941211027729</v>
+        <v>0.23476548084815257</v>
       </c>
       <c r="F29" s="30">
         <f>F17/$H$17</f>
@@ -4272,11 +4284,11 @@
       </c>
       <c r="D30">
         <f>D14/D17</f>
-        <v>0.14634146341463414</v>
+        <v>8.5692307692307693E-2</v>
       </c>
       <c r="E30">
         <f>E14/E17</f>
-        <v>8.5692307692307693E-2</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="F30">
         <f>F14/F17</f>
@@ -4307,11 +4319,11 @@
       </c>
       <c r="D31">
         <f>D15/D17</f>
-        <v>0.85365853658536583</v>
+        <v>0.91430769230769227</v>
       </c>
       <c r="E31">
         <f>E15/E17</f>
-        <v>0.91430769230769227</v>
+        <v>0.85365853658536583</v>
       </c>
       <c r="F31">
         <f>F15/F17</f>
@@ -4370,12 +4382,12 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <f>D9/D17</f>
+        <f>D14/D17</f>
+        <v>8.5692307692307693E-2</v>
+      </c>
+      <c r="E34">
+        <f>E9/E17</f>
         <v>0.14634146341463414</v>
-      </c>
-      <c r="E34">
-        <f>E14/E17</f>
-        <v>8.5692307692307693E-2</v>
       </c>
       <c r="F34">
         <f>F30</f>
@@ -4402,7 +4414,7 @@
       <c r="A35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0</v>
       </c>
       <c r="K35" s="8"/>
@@ -4418,12 +4430,12 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <f>D15/D17</f>
+        <f>D31</f>
+        <v>0.91430769230769227</v>
+      </c>
+      <c r="E36">
+        <f>E15/E17</f>
         <v>0.85365853658536583</v>
-      </c>
-      <c r="E36">
-        <f>E31</f>
-        <v>0.91430769230769227</v>
       </c>
       <c r="H36">
         <f>H17/$H$17</f>
@@ -4500,10 +4512,10 @@
         <v>0.2</v>
       </c>
       <c r="D42">
+        <v>0.25</v>
+      </c>
+      <c r="E42">
         <v>0.1</v>
-      </c>
-      <c r="E42">
-        <v>0.25</v>
       </c>
       <c r="F42">
         <v>0.4</v>
@@ -4526,11 +4538,11 @@
       </c>
       <c r="D44">
         <f>D17*D42</f>
-        <v>9.1111111111111115E-3</v>
+        <v>2.5793650793650792E-2</v>
       </c>
       <c r="E44">
         <f>E17*E42</f>
-        <v>2.5793650793650792E-2</v>
+        <v>9.1111111111111115E-3</v>
       </c>
       <c r="F44">
         <f>F17*F42</f>
@@ -4556,11 +4568,11 @@
       </c>
       <c r="D45">
         <f>D14*D42</f>
-        <v>1.3333333333333335E-3</v>
+        <v>2.2103174603174602E-3</v>
       </c>
       <c r="E45">
         <f>E14*E42</f>
-        <v>2.2103174603174602E-3</v>
+        <v>1.3333333333333335E-3</v>
       </c>
       <c r="F45">
         <f>F14*F42</f>
@@ -4586,11 +4598,11 @@
       </c>
       <c r="D46">
         <f>D15*D42</f>
-        <v>7.7777777777777784E-3</v>
+        <v>2.3583333333333331E-2</v>
       </c>
       <c r="E46">
         <f>E15*E42</f>
-        <v>2.3583333333333331E-2</v>
+        <v>7.7777777777777784E-3</v>
       </c>
       <c r="F46">
         <f>F15*F42</f>
@@ -4618,16 +4630,16 @@
       <c r="D49" t="s">
         <v>43</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
         <v>44</v>
       </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
       <c r="H49" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4646,20 +4658,20 @@
         <f>C50/C55</f>
         <v>2.2656899025753342E-2</v>
       </c>
-      <c r="F50">
-        <f>F55*D50</f>
+      <c r="E50">
+        <f>E55*D50</f>
         <v>1.9563484434906532E-3</v>
       </c>
-      <c r="H50">
+      <c r="G50">
         <f>H45</f>
         <v>1.0303769841269843E-2</v>
       </c>
+      <c r="H50">
+        <f>1/G50</f>
+        <v>97.051857272149562</v>
+      </c>
       <c r="I50">
-        <f>1/H50</f>
-        <v>97.051857272149562</v>
-      </c>
-      <c r="J50">
-        <f>H50/H55*100</f>
+        <f>G50/G55*100</f>
         <v>11.933021116714409</v>
       </c>
     </row>
@@ -4678,8 +4690,8 @@
         <f>C51/C55</f>
         <v>0.22211313344913525</v>
       </c>
-      <c r="F51">
-        <f>F55*D51</f>
+      <c r="E51">
+        <f>E55*D51</f>
         <v>1.9178735907686702E-2</v>
       </c>
     </row>
@@ -4710,20 +4722,20 @@
         <f>C54/C55</f>
         <v>0.7552299675251114</v>
       </c>
-      <c r="F54">
-        <f>F55*D54</f>
+      <c r="E54">
+        <f>E55*D54</f>
         <v>6.5211614783021774E-2</v>
       </c>
-      <c r="H54">
+      <c r="G54">
         <f>H46</f>
         <v>7.6042929292929301E-2</v>
       </c>
+      <c r="H54">
+        <f>1/G54</f>
+        <v>13.150466575897452</v>
+      </c>
       <c r="I54">
-        <f>1/H54</f>
-        <v>13.150466575897452</v>
-      </c>
-      <c r="J54">
-        <f>H54/H55*100</f>
+        <f>G54/G55*100</f>
         <v>88.066978883285586</v>
       </c>
     </row>
@@ -4742,16 +4754,16 @@
         <f>D50+D51+D54</f>
         <v>1</v>
       </c>
-      <c r="F55">
+      <c r="E55">
         <f>H44</f>
         <v>8.6346699134199123E-2</v>
       </c>
+      <c r="G55">
+        <f>G50+G54</f>
+        <v>8.6346699134199151E-2</v>
+      </c>
       <c r="H55">
-        <f>H50+H54</f>
-        <v>8.6346699134199151E-2</v>
-      </c>
-      <c r="I55">
-        <f>1/H55</f>
+        <f>1/G55</f>
         <v>11.581218622449137</v>
       </c>
     </row>
@@ -4848,6 +4860,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4860,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4913,9 +4926,11 @@
         <v>7</v>
       </c>
       <c r="C2" s="6">
-        <v>75</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="D2" s="6">
+        <v>200</v>
+      </c>
       <c r="E2" s="6">
         <v>160</v>
       </c>
@@ -4933,7 +4948,9 @@
       <c r="C3" s="6">
         <v>75</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6">
+        <v>150</v>
+      </c>
       <c r="E3" s="6">
         <v>66</v>
       </c>
@@ -4952,7 +4969,9 @@
         <v>10</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>54</v>
       </c>
@@ -4984,7 +5003,9 @@
       <c r="C6" s="6">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6">
+        <v>12</v>
+      </c>
       <c r="E6" s="6">
         <v>11</v>
       </c>
@@ -5017,10 +5038,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:G10" si="0">1/C2</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="D9" s="7"/>
+        <f t="shared" ref="C9:F10" si="0">1/C2</f>
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>6.2500000000000003E-3</v>
@@ -5030,7 +5054,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f>1/G2</f>
         <v>0.01</v>
       </c>
     </row>
@@ -5042,7 +5066,10 @@
         <f t="shared" si="0"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>1.5151515151515152E-2</v>
@@ -5052,7 +5079,7 @@
         <v>1.5151515151515152E-2</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
+        <f>1/G3</f>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
@@ -5064,7 +5091,9 @@
         <f>C10</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7">
         <v>0</v>
       </c>
@@ -5080,7 +5109,10 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <f>1/D3</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
       <c r="E12" s="7">
         <f>1/E3</f>
         <v>1.5151515151515152E-2</v>
@@ -5102,7 +5134,10 @@
         <f>1/C6</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <f>1/D6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E13" s="7">
         <f>1/E6</f>
         <v>9.0909090909090912E-2</v>
@@ -5122,9 +5157,12 @@
       </c>
       <c r="C14" s="7">
         <f>C9+C11+C13</f>
-        <v>0.11</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>0.10238095238095238</v>
+      </c>
+      <c r="D14" s="7">
+        <f>D9+D11</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="E14" s="7">
         <f>E9+E11</f>
         <v>6.2500000000000003E-3</v>
@@ -5139,7 +5177,7 @@
       </c>
       <c r="H14" s="7">
         <f>SUM(C14:G14)</f>
-        <v>0.12875</v>
+        <v>0.1261309523809524</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5147,7 +5185,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <f>D12+D13</f>
+        <v>0.09</v>
+      </c>
       <c r="E15" s="7">
         <f>E12+E13</f>
         <v>0.10606060606060606</v>
@@ -5162,7 +5203,7 @@
       </c>
       <c r="H15" s="7">
         <f>SUM(C15:G15)</f>
-        <v>0.30212121212121212</v>
+        <v>0.39212121212121209</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5181,9 +5222,12 @@
       </c>
       <c r="C17" s="7">
         <f>C9+C10+C13</f>
-        <v>0.11</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>0.10238095238095238</v>
+      </c>
+      <c r="D17" s="7">
+        <f>D9+D10+D13</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="E17" s="7">
         <f>E9+E10+E13</f>
         <v>0.11231060606060606</v>
@@ -5198,7 +5242,7 @@
       </c>
       <c r="H17" s="7">
         <f>SUM(C17:G17)</f>
-        <v>0.4308712121212121</v>
+        <v>0.51825216450216449</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -5207,9 +5251,12 @@
       </c>
       <c r="C18" s="7">
         <f>C14+C15</f>
-        <v>0.11</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>0.10238095238095238</v>
+      </c>
+      <c r="D18" s="7">
+        <f>D14+D15</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="E18" s="7">
         <f>E14+E15</f>
         <v>0.11231060606060607</v>
@@ -5245,7 +5292,10 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <f>D9</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -5254,7 +5304,10 @@
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7">
+        <f>D13</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -5263,7 +5316,10 @@
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <f>D12</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
       <c r="E23" s="7">
         <v>1</v>
       </c>
@@ -5297,7 +5353,10 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="D26" s="7"/>
+      <c r="D26" s="7">
+        <f>SUM(D21:D23)</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="E26" s="7">
         <f t="shared" ref="E26" si="1">SUM(E21:E23)</f>
         <v>1</v>
@@ -5317,18 +5376,22 @@
       </c>
       <c r="C28">
         <f>C11/C14</f>
-        <v>0.12121212121212122</v>
+        <v>0.13023255813953488</v>
+      </c>
+      <c r="D28">
+        <f>D11/D14</f>
+        <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:G29" si="2">E11/E14</f>
+        <f>E11/E14</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f>F11/F14</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f>G11/G14</f>
         <v>0</v>
       </c>
     </row>
@@ -5339,39 +5402,24 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <f>D12/D15</f>
+        <v>7.4074074074074084E-2</v>
+      </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f>E12/E15</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f>F12/F15</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f>G12/G15</f>
         <v>7.4074074074074084E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="C30">
-        <v>0.2092</v>
-      </c>
-      <c r="D30">
-        <v>0.18060000000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.21360000000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.2064</v>
-      </c>
-      <c r="G30">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="H30">
-        <f>SUM(C30:G30)</f>
-        <v>1</v>
-      </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -5381,52 +5429,58 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C31">
-        <f>C17/$H$17</f>
-        <v>0.25529670329670329</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:G31" si="3">D17/$H$17</f>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>0.26065934065934065</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>0.25195604395604398</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>0.23208791208791207</v>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30">
+        <f t="shared" ref="C31:H31" si="2">C17/$H$17</f>
+        <v>0.197550457853466</v>
+      </c>
+      <c r="D31" s="30">
+        <f t="shared" si="2"/>
+        <v>0.18330844810123939</v>
+      </c>
+      <c r="E31" s="30">
+        <f t="shared" si="2"/>
+        <v>0.21671034633978262</v>
+      </c>
+      <c r="F31" s="30">
+        <f t="shared" si="2"/>
+        <v>0.20947448654631265</v>
+      </c>
+      <c r="G31" s="30">
+        <f t="shared" si="2"/>
+        <v>0.19295626115919934</v>
       </c>
       <c r="H31">
-        <f>SUM(C31:G31)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" t="s">
+      <c r="A32" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C32">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30">
         <f>C14/C17</f>
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="D32" s="30">
+        <f>D14/D17</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="E32" s="30">
         <f>E14/E17</f>
         <v>5.5649241146711645E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="30">
         <f>F14/F17</f>
         <v>2.3028611304954639E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="30">
         <f>G14/G17</f>
         <v>0.1</v>
       </c>
@@ -5437,22 +5491,27 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" t="s">
+      <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C33">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30">
         <f>C15/C17</f>
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="D33" s="30">
+        <f>D15/D17</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="E33" s="30">
         <f>E15/E17</f>
         <v>0.94435075885328845</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="30">
         <f>F15/F17</f>
         <v>0.9769713886950453</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="30">
         <f>G15/G17</f>
         <v>0.9</v>
       </c>
@@ -5485,6 +5544,10 @@
         <f>C32</f>
         <v>1</v>
       </c>
+      <c r="D36">
+        <f>D32</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
       <c r="E36">
         <f>E32</f>
         <v>5.5649241146711645E-2</v>
@@ -5506,6 +5569,10 @@
       <c r="C37">
         <v>0</v>
       </c>
+      <c r="D37">
+        <f>(D13)/D17</f>
+        <v>0.8771929824561403</v>
+      </c>
       <c r="E37">
         <v>0</v>
       </c>
@@ -5524,6 +5591,10 @@
       <c r="C38">
         <v>0</v>
       </c>
+      <c r="D38">
+        <f>D23/D17</f>
+        <v>7.0175438596491238E-2</v>
+      </c>
       <c r="E38" s="7">
         <f>E33</f>
         <v>0.94435075885328845</v>
@@ -5542,6 +5613,9 @@
       <c r="C39">
         <v>0</v>
       </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39">
         <v>0</v>
       </c>
@@ -5562,6 +5636,9 @@
       <c r="C40">
         <v>0</v>
       </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
       <c r="E40">
         <v>0</v>
       </c>
@@ -5582,12 +5659,16 @@
         <f>SUM(C36:C40)</f>
         <v>1</v>
       </c>
+      <c r="D41">
+        <f>SUM(D36:D40)</f>
+        <v>1</v>
+      </c>
       <c r="E41">
-        <f t="shared" ref="E41:F41" si="4">SUM(E36:E40)</f>
+        <f t="shared" ref="E41:F41" si="3">SUM(E36:E40)</f>
         <v>1</v>
       </c>
       <c r="F41" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G41">
@@ -5607,6 +5688,10 @@
       <c r="C44">
         <v>0</v>
       </c>
+      <c r="D44">
+        <f>D37/D33</f>
+        <v>0.92592592592592593</v>
+      </c>
       <c r="E44">
         <v>0</v>
       </c>
@@ -5624,6 +5709,10 @@
       <c r="C45">
         <v>0</v>
       </c>
+      <c r="D45">
+        <f>D38/D33</f>
+        <v>7.4074074074074084E-2</v>
+      </c>
       <c r="E45" s="7">
         <f>E38/E33</f>
         <v>1</v>
@@ -5642,6 +5731,9 @@
       <c r="C46">
         <v>0</v>
       </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="E46">
         <v>0</v>
       </c>
@@ -5661,6 +5753,9 @@
       <c r="C47">
         <v>0</v>
       </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
       <c r="E47">
         <v>0</v>
       </c>
@@ -5680,16 +5775,20 @@
         <f>SUM(C44:C47)</f>
         <v>0</v>
       </c>
+      <c r="D48">
+        <f t="shared" ref="D48:G48" si="4">SUM(D44:D47)</f>
+        <v>1</v>
+      </c>
       <c r="E48">
-        <f t="shared" ref="E48:G48" si="5">SUM(E44:E47)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5700,8 +5799,11 @@
       <c r="C50">
         <v>0.15</v>
       </c>
+      <c r="D50">
+        <v>0.02</v>
+      </c>
       <c r="E50">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F50">
         <v>0.55000000000000004</v>
@@ -5720,15 +5822,15 @@
       </c>
       <c r="C52">
         <f>C17*C50</f>
-        <v>1.6500000000000001E-2</v>
+        <v>1.5357142857142856E-2</v>
       </c>
       <c r="D52">
         <f>D17*D50</f>
-        <v>0</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E52">
         <f>E17*E50</f>
-        <v>3.0323863636363638E-2</v>
+        <v>2.8077651515151514E-2</v>
       </c>
       <c r="F52">
         <f>F17*F50</f>
@@ -5740,7 +5842,7 @@
       </c>
       <c r="H52">
         <f>SUM(C52:G52)</f>
-        <v>0.10953219696969699</v>
+        <v>0.10804312770562771</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5749,15 +5851,15 @@
       </c>
       <c r="C53">
         <f>C14*C50</f>
-        <v>1.6500000000000001E-2</v>
+        <v>1.5357142857142856E-2</v>
       </c>
       <c r="D53">
         <f>D14*D50</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="E53">
         <f>E14*E50</f>
-        <v>1.6875000000000002E-3</v>
+        <v>1.5625000000000001E-3</v>
       </c>
       <c r="F53">
         <f>F14*F50</f>
@@ -5769,7 +5871,7 @@
       </c>
       <c r="H53">
         <f>SUM(C53:G53)</f>
-        <v>1.9862500000000005E-2</v>
+        <v>1.8694642857142858E-2</v>
       </c>
       <c r="J53">
         <f>0.2*0.02+0.1*1/75+0.25*1/315+0.4*0.001+0.05*1/60</f>
@@ -5786,11 +5888,11 @@
       </c>
       <c r="D54">
         <f>D15*D50</f>
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E54">
         <f>E15*E50</f>
-        <v>2.863636363636364E-2</v>
+        <v>2.6515151515151516E-2</v>
       </c>
       <c r="F54">
         <f>F15*F50</f>
@@ -5802,11 +5904,11 @@
       </c>
       <c r="H54">
         <f>SUM(C54:G54)</f>
-        <v>8.9669696969696969E-2</v>
+        <v>8.9348484848484858E-2</v>
       </c>
       <c r="J54">
         <f>H14/H17</f>
-        <v>0.29881318681318686</v>
+        <v>0.2433775698787759</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -5852,19 +5954,19 @@
       </c>
       <c r="F58">
         <f>F63*D58</f>
-        <v>1.2714579773544708E-2</v>
+        <v>1.2541727493848536E-2</v>
       </c>
       <c r="H58">
         <f>H53</f>
-        <v>1.9862500000000005E-2</v>
+        <v>1.8694642857142858E-2</v>
       </c>
       <c r="I58">
         <f>1/H58</f>
-        <v>50.346129641283817</v>
+        <v>53.491259910211099</v>
       </c>
       <c r="J58">
         <f>H58/H63</f>
-        <v>0.18133937371396958</v>
+        <v>0.17302944901852466</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5872,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B59" s="7">
-        <f t="shared" ref="B59:B63" si="6">1/C59</f>
+        <f t="shared" ref="B59:B63" si="5">1/C59</f>
         <v>45.004500450045008</v>
       </c>
       <c r="C59">
@@ -5884,7 +5986,7 @@
       </c>
       <c r="F59">
         <f>F63*D59</f>
-        <v>4.2356516127160931E-2</v>
+        <v>4.1780687393300521E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5904,7 +6006,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>35.001750087504377</v>
       </c>
       <c r="C62">
@@ -5916,19 +6018,19 @@
       </c>
       <c r="F62">
         <f>F63*D62</f>
-        <v>5.4461101068991359E-2</v>
+        <v>5.3720712818478664E-2</v>
       </c>
       <c r="H62">
         <f>H54</f>
-        <v>8.9669696969696969E-2</v>
+        <v>8.9348484848484858E-2</v>
       </c>
       <c r="I62">
         <f>1/H62</f>
-        <v>11.152039471460917</v>
+        <v>11.192131592335084</v>
       </c>
       <c r="J62">
         <f>H62/H63</f>
-        <v>0.81866062628603042</v>
+        <v>0.82697055098147543</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5936,7 +6038,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17.40341106856944</v>
       </c>
       <c r="C63">
@@ -5948,15 +6050,15 @@
       </c>
       <c r="F63">
         <f>H52</f>
-        <v>0.10953219696969699</v>
+        <v>0.10804312770562771</v>
       </c>
       <c r="H63">
         <f>H58+H62</f>
-        <v>0.10953219696969697</v>
+        <v>0.10804312770562771</v>
       </c>
       <c r="I63">
         <f>1/H63</f>
-        <v>9.1297356180727256</v>
+        <v>9.255563229570523</v>
       </c>
       <c r="J63">
         <f>J58+J62</f>
@@ -6051,7 +6153,8 @@
   <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6114,7 +6217,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="25">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F2" s="25">
         <v>200</v>
@@ -6241,7 +6344,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F6" s="25">
         <v>20</v>
@@ -6337,7 +6440,7 @@
       </c>
       <c r="E9" s="26">
         <f>1/E2</f>
-        <v>6.6666666666666671E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F9" s="26">
         <f>1/F2</f>
@@ -6465,7 +6568,7 @@
       <c r="D13" s="26"/>
       <c r="E13" s="26">
         <f>1/E6</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0.02</v>
       </c>
       <c r="F13" s="26">
         <f>1/F6</f>
@@ -6508,8 +6611,8 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E14" s="26">
-        <f>E9+E11+E13</f>
-        <v>8.2156862745098036E-2</v>
+        <f>E9+E11</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F14" s="26">
         <f>F9+F11</f>
@@ -6554,7 +6657,8 @@
         <v>0</v>
       </c>
       <c r="E15" s="26">
-        <v>0</v>
+        <f>E13</f>
+        <v>0.02</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="1"/>
@@ -6628,7 +6732,7 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" ref="E17:G17" si="2">E14+E15</f>
-        <v>8.2156862745098036E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="2"/>
@@ -6640,7 +6744,7 @@
       </c>
       <c r="H17" s="26">
         <f>SUM(C17:G17)</f>
-        <v>0.17382352941176471</v>
+        <v>0.13666666666666666</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -6675,7 +6779,7 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="3"/>
-        <v>8.2156862745098036E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="3"/>
@@ -7007,23 +7111,23 @@
       <c r="B29" s="24"/>
       <c r="C29" s="24">
         <f>C17/$H$17</f>
-        <v>2.8764805414551606E-2</v>
+        <v>3.6585365853658541E-2</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" ref="D29:G29" si="4">D17/$H$17</f>
-        <v>3.835307388606881E-2</v>
+        <v>4.8780487804878057E-2</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="4"/>
-        <v>0.47264523406655384</v>
+        <v>0.32926829268292684</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="4"/>
-        <v>0.31641285956006765</v>
+        <v>0.40243902439024393</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="4"/>
-        <v>0.14382402707275804</v>
+        <v>0.18292682926829271</v>
       </c>
       <c r="H29" s="24">
         <f>SUM(C29:G29)</f>
@@ -7061,8 +7165,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="5"/>
@@ -7105,8 +7208,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F31" s="24">
         <f t="shared" si="5"/>
@@ -7204,7 +7306,7 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F34" s="24">
         <f t="shared" si="6"/>
@@ -7268,7 +7370,10 @@
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="24">
+        <f>E31</f>
+        <v>0.3</v>
+      </c>
       <c r="F36" s="24"/>
       <c r="H36" s="24">
         <v>1</v>
@@ -7531,7 +7636,7 @@
       </c>
       <c r="E44" s="24">
         <f>E17*E42</f>
-        <v>2.0539215686274509E-2</v>
+        <v>1.125E-2</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="8"/>
@@ -7543,7 +7648,7 @@
       </c>
       <c r="H44" s="24">
         <f>SUM(C44:G44)</f>
-        <v>3.1122549019607846E-2</v>
+        <v>2.1833333333333337E-2</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -7578,7 +7683,7 @@
       </c>
       <c r="E45" s="24">
         <f t="shared" si="9"/>
-        <v>2.0539215686274509E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="F45" s="24">
         <f t="shared" si="9"/>
@@ -7590,7 +7695,7 @@
       </c>
       <c r="H45" s="24">
         <f>SUM(C45:G45)</f>
-        <v>2.5122549019607844E-2</v>
+        <v>1.0833333333333334E-2</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -7625,7 +7730,7 @@
       </c>
       <c r="E46" s="24">
         <f>E15*E42</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="10"/>
@@ -7637,7 +7742,7 @@
       </c>
       <c r="H46" s="24">
         <f>SUM(C46:G46)</f>
-        <v>6.000000000000001E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -7774,15 +7879,15 @@
       <c r="G50" s="24"/>
       <c r="H50" s="24">
         <f>H45</f>
-        <v>2.5122549019607844E-2</v>
+        <v>1.0833333333333334E-2</v>
       </c>
       <c r="I50" s="25">
         <f>1/H50</f>
-        <v>39.804878048780488</v>
+        <v>92.307692307692307</v>
       </c>
       <c r="J50" s="24">
         <f>H50/H55</f>
-        <v>0.80721373444636946</v>
+        <v>0.49618320610687017</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -7915,15 +8020,15 @@
       <c r="G54" s="24"/>
       <c r="H54" s="24">
         <f>H46</f>
-        <v>6.000000000000001E-3</v>
+        <v>1.1000000000000003E-2</v>
       </c>
       <c r="I54" s="24">
         <f>1/H54</f>
-        <v>166.66666666666663</v>
+        <v>90.909090909090892</v>
       </c>
       <c r="J54" s="24">
         <f>H54/H55</f>
-        <v>0.19278626555363051</v>
+        <v>0.50381679389312983</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -7961,11 +8066,11 @@
       <c r="G55" s="24"/>
       <c r="H55" s="24">
         <f>H44</f>
-        <v>3.1122549019607846E-2</v>
+        <v>2.1833333333333337E-2</v>
       </c>
       <c r="I55" s="24">
         <f>1/H55</f>
-        <v>32.13104425893841</v>
+        <v>45.801526717557245</v>
       </c>
       <c r="J55" s="24">
         <f>J50+J54</f>
@@ -8610,6 +8715,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8622,9 +8728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8687,7 +8792,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="25">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F2" s="25">
         <v>200</v>
@@ -8814,7 +8919,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F6" s="25">
         <v>20</v>
@@ -8910,7 +9015,7 @@
       </c>
       <c r="E9" s="26">
         <f>1/E2</f>
-        <v>8.3333333333333332E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="F9" s="26">
         <f>1/F2</f>
@@ -9038,7 +9143,7 @@
       <c r="D13" s="26"/>
       <c r="E13" s="26">
         <f>1/E6</f>
-        <v>0.02</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F13" s="26">
         <f>1/F6</f>
@@ -9081,8 +9186,8 @@
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E14" s="26">
-        <f>E9+E11</f>
-        <v>2.5000000000000001E-2</v>
+        <f>E9+E11+E13</f>
+        <v>8.2156862745098036E-2</v>
       </c>
       <c r="F14" s="26">
         <f>F9+F11</f>
@@ -9127,8 +9232,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="26">
-        <f>E13</f>
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="1"/>
@@ -9202,7 +9306,7 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" ref="E17:G17" si="2">E14+E15</f>
-        <v>4.4999999999999998E-2</v>
+        <v>8.2156862745098036E-2</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="2"/>
@@ -9214,7 +9318,7 @@
       </c>
       <c r="H17" s="26">
         <f>SUM(C17:G17)</f>
-        <v>0.13666666666666666</v>
+        <v>0.17382352941176471</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -9249,7 +9353,7 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="3"/>
-        <v>4.4999999999999998E-2</v>
+        <v>8.2156862745098036E-2</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="3"/>
@@ -9581,23 +9685,23 @@
       <c r="B29" s="24"/>
       <c r="C29" s="24">
         <f>C17/$H$17</f>
-        <v>3.6585365853658541E-2</v>
+        <v>2.8764805414551606E-2</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" ref="D29:G29" si="4">D17/$H$17</f>
-        <v>4.8780487804878057E-2</v>
+        <v>3.835307388606881E-2</v>
       </c>
       <c r="E29" s="24">
         <f t="shared" si="4"/>
-        <v>0.32926829268292684</v>
+        <v>0.47264523406655384</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="4"/>
-        <v>0.40243902439024393</v>
+        <v>0.31641285956006765</v>
       </c>
       <c r="G29" s="24">
         <f t="shared" si="4"/>
-        <v>0.18292682926829271</v>
+        <v>0.14382402707275804</v>
       </c>
       <c r="H29" s="24">
         <f>SUM(C29:G29)</f>
@@ -9635,7 +9739,8 @@
         <v>1</v>
       </c>
       <c r="E30" s="24">
-        <v>0.7</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="F30" s="24">
         <f t="shared" si="5"/>
@@ -9678,7 +9783,8 @@
         <v>0</v>
       </c>
       <c r="E31" s="24">
-        <v>0.3</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F31" s="24">
         <f t="shared" si="5"/>
@@ -9776,7 +9882,7 @@
       </c>
       <c r="E34" s="24">
         <f t="shared" si="6"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F34" s="24">
         <f t="shared" si="6"/>
@@ -9840,10 +9946,7 @@
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="24">
-        <f>E31</f>
-        <v>0.3</v>
-      </c>
+      <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="H36" s="24">
         <v>1</v>
@@ -10106,7 +10209,7 @@
       </c>
       <c r="E44" s="24">
         <f>E17*E42</f>
-        <v>1.125E-2</v>
+        <v>2.0539215686274509E-2</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="8"/>
@@ -10118,7 +10221,7 @@
       </c>
       <c r="H44" s="24">
         <f>SUM(C44:G44)</f>
-        <v>2.1833333333333337E-2</v>
+        <v>3.1122549019607846E-2</v>
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -10153,7 +10256,7 @@
       </c>
       <c r="E45" s="24">
         <f t="shared" si="9"/>
-        <v>6.2500000000000003E-3</v>
+        <v>2.0539215686274509E-2</v>
       </c>
       <c r="F45" s="24">
         <f t="shared" si="9"/>
@@ -10165,7 +10268,7 @@
       </c>
       <c r="H45" s="24">
         <f>SUM(C45:G45)</f>
-        <v>1.0833333333333334E-2</v>
+        <v>2.5122549019607844E-2</v>
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
@@ -10200,7 +10303,7 @@
       </c>
       <c r="E46" s="24">
         <f>E15*E42</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="10"/>
@@ -10212,7 +10315,7 @@
       </c>
       <c r="H46" s="24">
         <f>SUM(C46:G46)</f>
-        <v>1.1000000000000003E-2</v>
+        <v>6.000000000000001E-3</v>
       </c>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -10349,15 +10452,15 @@
       <c r="G50" s="24"/>
       <c r="H50" s="24">
         <f>H45</f>
-        <v>1.0833333333333334E-2</v>
+        <v>2.5122549019607844E-2</v>
       </c>
       <c r="I50" s="25">
         <f>1/H50</f>
-        <v>92.307692307692307</v>
+        <v>39.804878048780488</v>
       </c>
       <c r="J50" s="24">
         <f>H50/H55</f>
-        <v>0.49618320610687017</v>
+        <v>0.80721373444636946</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -10490,15 +10593,15 @@
       <c r="G54" s="24"/>
       <c r="H54" s="24">
         <f>H46</f>
-        <v>1.1000000000000003E-2</v>
+        <v>6.000000000000001E-3</v>
       </c>
       <c r="I54" s="24">
         <f>1/H54</f>
-        <v>90.909090909090892</v>
+        <v>166.66666666666663</v>
       </c>
       <c r="J54" s="24">
         <f>H54/H55</f>
-        <v>0.50381679389312983</v>
+        <v>0.19278626555363051</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -10536,11 +10639,11 @@
       <c r="G55" s="24"/>
       <c r="H55" s="24">
         <f>H44</f>
-        <v>2.1833333333333337E-2</v>
+        <v>3.1122549019607846E-2</v>
       </c>
       <c r="I55" s="24">
         <f>1/H55</f>
-        <v>45.801526717557245</v>
+        <v>32.13104425893841</v>
       </c>
       <c r="J55" s="24">
         <f>J50+J54</f>
@@ -11185,7 +11288,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11200,7 +11302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11703,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="1"/>
+        <f>E12+E13</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="F15" s="26">
@@ -13768,6 +13870,1197 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>160</v>
+      </c>
+      <c r="F2" s="6">
+        <v>400</v>
+      </c>
+      <c r="G2" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>75</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>66</v>
+      </c>
+      <c r="F3" s="6">
+        <v>66</v>
+      </c>
+      <c r="G3" s="19">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="19"/>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:G10" si="0">1/C2</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <f>C10</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <f>1/E3</f>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <f>1/F3</f>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <f>G10</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7">
+        <f>1/C6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <f>1/E6</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <f>1/F6</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <f>1/G6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
+        <f>C9+C11+C13</f>
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <f>E9+E11</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F14" s="7">
+        <f>F9+F11</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G14" s="7">
+        <f>G9+G11</f>
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="7">
+        <f>SUM(C14:G14)</f>
+        <v>0.12875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <f>E12+E13</f>
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="F15" s="7">
+        <f>F12+F13</f>
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="G15" s="7">
+        <f>G12+G13</f>
+        <v>0.09</v>
+      </c>
+      <c r="H15" s="7">
+        <f>SUM(C15:G15)</f>
+        <v>0.30212121212121212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <f>C9+C10+C13</f>
+        <v>0.11</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <f>E9+E10+E13</f>
+        <v>0.11231060606060606</v>
+      </c>
+      <c r="F17" s="7">
+        <f>F9+F10+F13</f>
+        <v>0.10856060606060607</v>
+      </c>
+      <c r="G17" s="7">
+        <f>G9+G10+G13</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <f>SUM(C17:G17)</f>
+        <v>0.4308712121212121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7">
+        <f>C14+C15</f>
+        <v>0.11</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <f>E14+E15</f>
+        <v>0.11231060606060607</v>
+      </c>
+      <c r="F18" s="7">
+        <f>F14+F15</f>
+        <v>0.10856060606060607</v>
+      </c>
+      <c r="G18" s="7">
+        <f>G14+G15</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <f>G12</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <f>1/G6</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <f t="shared" ref="E26" si="1">SUM(E21:E23)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <f>SUM(F21:F25)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <f>SUM(G21:G25)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f>C11/C14</f>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:G29" si="2">E11/E14</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>7.4074074074074084E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="C30">
+        <v>0.2092</v>
+      </c>
+      <c r="D30">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.2064</v>
+      </c>
+      <c r="G30">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="H30">
+        <f>SUM(C30:G30)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <f>C17/$H$17</f>
+        <v>0.25529670329670329</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:G31" si="3">D17/$H$17</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>0.26065934065934065</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.25195604395604398</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>0.23208791208791207</v>
+      </c>
+      <c r="H31">
+        <f>SUM(C31:G31)</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>E14/E17</f>
+        <v>5.5649241146711645E-2</v>
+      </c>
+      <c r="F32">
+        <f>F14/F17</f>
+        <v>2.3028611304954639E-2</v>
+      </c>
+      <c r="G32">
+        <f>G14/G17</f>
+        <v>0.1</v>
+      </c>
+      <c r="H32">
+        <f>H14/$H$14</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <f>C15/C17</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>E15/E17</f>
+        <v>0.94435075885328845</v>
+      </c>
+      <c r="F33">
+        <f>F15/F17</f>
+        <v>0.9769713886950453</v>
+      </c>
+      <c r="G33">
+        <f>G15/G17</f>
+        <v>0.9</v>
+      </c>
+      <c r="H33">
+        <f>H15/$H$15</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <f>C32</f>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f>E32</f>
+        <v>5.5649241146711645E-2</v>
+      </c>
+      <c r="F36">
+        <f>F32</f>
+        <v>2.3028611304954639E-2</v>
+      </c>
+      <c r="G36">
+        <f>G32</f>
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <f>E33</f>
+        <v>0.94435075885328845</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>F33</f>
+        <v>0.9769713886950453</v>
+      </c>
+      <c r="G39">
+        <f>(1/G3)/G17</f>
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>(G13)/G17</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <f>SUM(C36:C40)</f>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:F41" si="4">SUM(E36:E40)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G41">
+        <f>SUM(G36:G40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <f>E38/E33</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>F39/F33</f>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f>G39/G33</f>
+        <v>7.4074074074074084E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>G40/G33</f>
+        <v>0.92592592592592593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <f>SUM(C44:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:G48" si="5">SUM(E44:E47)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>0.15</v>
+      </c>
+      <c r="E50">
+        <v>0.27</v>
+      </c>
+      <c r="F50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G50">
+        <v>0.03</v>
+      </c>
+      <c r="H50">
+        <f>SUM(C50:G50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <f>C17*C50</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D52">
+        <f>D17*D50</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>E17*E50</f>
+        <v>3.0323863636363638E-2</v>
+      </c>
+      <c r="F52">
+        <f>F17*F50</f>
+        <v>5.9708333333333342E-2</v>
+      </c>
+      <c r="G52">
+        <f>G17*G50</f>
+        <v>2.9999999999999996E-3</v>
+      </c>
+      <c r="H52">
+        <f>SUM(C52:G52)</f>
+        <v>0.10953219696969699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <f>C14*C50</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D53">
+        <f>D14*D50</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>E14*E50</f>
+        <v>1.6875000000000002E-3</v>
+      </c>
+      <c r="F53">
+        <f>F14*F50</f>
+        <v>1.3750000000000001E-3</v>
+      </c>
+      <c r="G53">
+        <f>G14*G50</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H53">
+        <f>SUM(C53:G53)</f>
+        <v>1.9862500000000005E-2</v>
+      </c>
+      <c r="J53">
+        <f>0.2*0.02+0.1*1/75+0.25*1/315+0.4*0.001+0.05*1/60</f>
+        <v>7.3603174603174611E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <f>C15*C50</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>D15*D50</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>E15*E50</f>
+        <v>2.863636363636364E-2</v>
+      </c>
+      <c r="F54">
+        <f>F15*F50</f>
+        <v>5.8333333333333341E-2</v>
+      </c>
+      <c r="G54">
+        <f>G15*G50</f>
+        <v>2.6999999999999997E-3</v>
+      </c>
+      <c r="H54">
+        <f>SUM(C54:G54)</f>
+        <v>8.9669696969696969E-2</v>
+      </c>
+      <c r="J54">
+        <f>H14/H17</f>
+        <v>0.29881318681318686</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="7">
+        <f>1/C58</f>
+        <v>149.92503748125938</v>
+      </c>
+      <c r="C58">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="D58">
+        <f>C58/C63</f>
+        <v>0.11608075182735816</v>
+      </c>
+      <c r="F58">
+        <f>F63*D58</f>
+        <v>1.2714579773544708E-2</v>
+      </c>
+      <c r="H58">
+        <f>H53</f>
+        <v>1.9862500000000005E-2</v>
+      </c>
+      <c r="I58">
+        <f>1/H58</f>
+        <v>50.346129641283817</v>
+      </c>
+      <c r="J58">
+        <f>H58/H63</f>
+        <v>0.18133937371396958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="7">
+        <f t="shared" ref="B59:B63" si="6">1/C59</f>
+        <v>45.004500450045008</v>
+      </c>
+      <c r="C59">
+        <v>2.222E-2</v>
+      </c>
+      <c r="D59">
+        <f>C59/C63</f>
+        <v>0.38670379394361298</v>
+      </c>
+      <c r="F59">
+        <f>F63*D59</f>
+        <v>4.2356516127160931E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="7">
+        <f t="shared" si="6"/>
+        <v>35.001750087504377</v>
+      </c>
+      <c r="C62">
+        <v>2.8570000000000002E-2</v>
+      </c>
+      <c r="D62">
+        <f>C62/C63</f>
+        <v>0.49721545422902896</v>
+      </c>
+      <c r="F62">
+        <f>F63*D62</f>
+        <v>5.4461101068991359E-2</v>
+      </c>
+      <c r="H62">
+        <f>H54</f>
+        <v>8.9669696969696969E-2</v>
+      </c>
+      <c r="I62">
+        <f>1/H62</f>
+        <v>11.152039471460917</v>
+      </c>
+      <c r="J62">
+        <f>H62/H63</f>
+        <v>0.81866062628603042</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="7">
+        <f t="shared" si="6"/>
+        <v>17.40341106856944</v>
+      </c>
+      <c r="C63">
+        <v>5.7459999999999997E-2</v>
+      </c>
+      <c r="D63">
+        <f>D58+D59+D62</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F63">
+        <f>H52</f>
+        <v>0.10953219696969699</v>
+      </c>
+      <c r="H63">
+        <f>H58+H62</f>
+        <v>0.10953219696969697</v>
+      </c>
+      <c r="I63">
+        <f>1/H63</f>
+        <v>9.1297356180727256</v>
+      </c>
+      <c r="J63">
+        <f>J58+J62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
@@ -15062,1282 +16355,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6">
-        <v>75</v>
-      </c>
-      <c r="D2" s="6">
-        <v>200</v>
-      </c>
-      <c r="E2" s="6">
-        <v>160</v>
-      </c>
-      <c r="F2" s="6">
-        <v>400</v>
-      </c>
-      <c r="G2" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>75</v>
-      </c>
-      <c r="D3" s="6">
-        <v>150</v>
-      </c>
-      <c r="E3" s="6">
-        <v>66</v>
-      </c>
-      <c r="F3" s="6">
-        <v>66</v>
-      </c>
-      <c r="G3" s="19">
-        <v>150</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="19"/>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6">
-        <v>11</v>
-      </c>
-      <c r="G6" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" ref="C9:F10" si="0">1/C2</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G9" s="7">
-        <f>1/G2</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5151515151515152E-2</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5151515151515152E-2</v>
-      </c>
-      <c r="G10" s="7">
-        <f>1/G3</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7">
-        <f>C10</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <f>1/D3</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="E12" s="7">
-        <f>1/E3</f>
-        <v>1.5151515151515152E-2</v>
-      </c>
-      <c r="F12" s="7">
-        <f>1/F3</f>
-        <v>1.5151515151515152E-2</v>
-      </c>
-      <c r="G12" s="7">
-        <f>G10</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7">
-        <f>1/C6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D13" s="7">
-        <f>1/D6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <f>1/E6</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="F13" s="7">
-        <f>1/F6</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="G13" s="7">
-        <f>1/G6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7">
-        <f>C9+C11+C13</f>
-        <v>0.11</v>
-      </c>
-      <c r="D14" s="7">
-        <f>D9+D11</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E14" s="7">
-        <f>E9+E11</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="F14" s="7">
-        <f>F9+F11</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G14" s="7">
-        <f>G9+G11</f>
-        <v>0.01</v>
-      </c>
-      <c r="H14" s="7">
-        <f>SUM(C14:G14)</f>
-        <v>0.13375000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <f>D12+D13</f>
-        <v>0.09</v>
-      </c>
-      <c r="E15" s="7">
-        <f>E12+E13</f>
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="F15" s="7">
-        <f>F12+F13</f>
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="G15" s="7">
-        <f>G12+G13</f>
-        <v>0.09</v>
-      </c>
-      <c r="H15" s="7">
-        <f>SUM(C15:G15)</f>
-        <v>0.39212121212121209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7">
-        <f>C9+C10+C13</f>
-        <v>0.11</v>
-      </c>
-      <c r="D17" s="7">
-        <f>D9+D10+D13</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E17" s="7">
-        <f>E9+E10+E13</f>
-        <v>0.11231060606060606</v>
-      </c>
-      <c r="F17" s="7">
-        <f>F9+F10+F13</f>
-        <v>0.10856060606060607</v>
-      </c>
-      <c r="G17" s="7">
-        <f>G9+G10+G13</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <f>SUM(C17:G17)</f>
-        <v>0.52587121212121213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="7">
-        <f>C14+C15</f>
-        <v>0.11</v>
-      </c>
-      <c r="D18" s="7">
-        <f>D14+D15</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E18" s="7">
-        <f>E14+E15</f>
-        <v>0.11231060606060607</v>
-      </c>
-      <c r="F18" s="7">
-        <f>F14+F15</f>
-        <v>0.10856060606060607</v>
-      </c>
-      <c r="G18" s="7">
-        <f>G14+G15</f>
-        <v>9.9999999999999992E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <f>D9</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="7">
-        <f>D13</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7">
-        <f>D12</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7">
-        <f>G12</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <f>1/G6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="D26" s="7">
-        <f>SUM(D21:D23)</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" ref="E26" si="1">SUM(E21:E23)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="7">
-        <f>SUM(F21:F25)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
-        <f>SUM(G21:G25)</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <f>C11/C14</f>
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="D28">
-        <f>D11/D14</f>
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f>E11/E14</f>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f>F11/F14</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f>G11/G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f>D12/D15</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="E29">
-        <f>E12/E15</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="F29">
-        <f>F12/F15</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G29">
-        <f>G12/G15</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:H31" si="2">C17/$H$17</f>
-        <v>0.20917669091694879</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>0.18065259670100123</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0.21357055391485988</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>0.20643953036087301</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>0.19016062810631706</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <f>C14/C17</f>
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <f>D14/D17</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="E32">
-        <f>E14/E17</f>
-        <v>5.5649241146711645E-2</v>
-      </c>
-      <c r="F32">
-        <f>F14/F17</f>
-        <v>2.3028611304954639E-2</v>
-      </c>
-      <c r="G32">
-        <f>G14/G17</f>
-        <v>0.1</v>
-      </c>
-      <c r="H32">
-        <f>H14/$H$14</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <f>C15/C17</f>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f>D15/D17</f>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="E33">
-        <f>E15/E17</f>
-        <v>0.94435075885328845</v>
-      </c>
-      <c r="F33">
-        <f>F15/F17</f>
-        <v>0.9769713886950453</v>
-      </c>
-      <c r="G33">
-        <f>G15/G17</f>
-        <v>0.9</v>
-      </c>
-      <c r="H33">
-        <f>H15/$H$15</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36">
-        <f>C32</f>
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <f>D32</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="E36">
-        <f>E32</f>
-        <v>5.5649241146711645E-2</v>
-      </c>
-      <c r="F36">
-        <f>F32</f>
-        <v>2.3028611304954639E-2</v>
-      </c>
-      <c r="G36">
-        <f>G32</f>
-        <v>0.1</v>
-      </c>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <f>(D13)/D17</f>
-        <v>0.8771929824561403</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <f>D23/D17</f>
-        <v>7.0175438596491238E-2</v>
-      </c>
-      <c r="E38" s="7">
-        <f>E33</f>
-        <v>0.94435075885328845</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f>F33</f>
-        <v>0.9769713886950453</v>
-      </c>
-      <c r="G39">
-        <f>(1/G3)/G17</f>
-        <v>6.666666666666668E-2</v>
-      </c>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f>(G13)/G17</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41">
-        <f>SUM(C36:C40)</f>
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <f>SUM(D36:D40)</f>
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ref="E41:F41" si="3">SUM(E36:E40)</f>
-        <v>1</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G41">
-        <f>SUM(G36:G40)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <f>D37/D33</f>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <f>D38/D33</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-      <c r="E45" s="7">
-        <f>E38/E33</f>
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>F39/F33</f>
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <f>G39/G33</f>
-        <v>7.4074074074074084E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f>G40/G33</f>
-        <v>0.92592592592592593</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48">
-        <f>SUM(C44:C47)</f>
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ref="D48:G48" si="4">SUM(D44:D47)</f>
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50">
-        <v>0.15</v>
-      </c>
-      <c r="D50">
-        <v>0.02</v>
-      </c>
-      <c r="E50">
-        <v>0.25</v>
-      </c>
-      <c r="F50">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G50">
-        <v>0.03</v>
-      </c>
-      <c r="H50">
-        <f>SUM(C50:G50)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52">
-        <f>C17*C50</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="D52">
-        <f>D17*D50</f>
-        <v>1.9E-3</v>
-      </c>
-      <c r="E52">
-        <f>E17*E50</f>
-        <v>2.8077651515151514E-2</v>
-      </c>
-      <c r="F52">
-        <f>F17*F50</f>
-        <v>5.9708333333333342E-2</v>
-      </c>
-      <c r="G52">
-        <f>G17*G50</f>
-        <v>2.9999999999999996E-3</v>
-      </c>
-      <c r="H52">
-        <f>SUM(C52:G52)</f>
-        <v>0.10918598484848485</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53">
-        <f>C14*C50</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="D53">
-        <f>D14*D50</f>
-        <v>1E-4</v>
-      </c>
-      <c r="E53">
-        <f>E14*E50</f>
-        <v>1.5625000000000001E-3</v>
-      </c>
-      <c r="F53">
-        <f>F14*F50</f>
-        <v>1.3750000000000001E-3</v>
-      </c>
-      <c r="G53">
-        <f>G14*G50</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H53">
-        <f>SUM(C53:G53)</f>
-        <v>1.9837500000000004E-2</v>
-      </c>
-      <c r="J53">
-        <f>0.2*0.02+0.1*1/75+0.25*1/315+0.4*0.001+0.05*1/60</f>
-        <v>7.3603174603174611E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54">
-        <f>C15*C50</f>
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <f>D15*D50</f>
-        <v>1.8E-3</v>
-      </c>
-      <c r="E54">
-        <f>E15*E50</f>
-        <v>2.6515151515151516E-2</v>
-      </c>
-      <c r="F54">
-        <f>F15*F50</f>
-        <v>5.8333333333333341E-2</v>
-      </c>
-      <c r="G54">
-        <f>G15*G50</f>
-        <v>2.6999999999999997E-3</v>
-      </c>
-      <c r="H54">
-        <f>SUM(C54:G54)</f>
-        <v>8.9348484848484858E-2</v>
-      </c>
-      <c r="J54">
-        <f>H14/H17</f>
-        <v>0.25433984009219912</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s">
-        <v>41</v>
-      </c>
-      <c r="J57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="7">
-        <f>1/C58</f>
-        <v>149.92503748125938</v>
-      </c>
-      <c r="C58">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="D58">
-        <f>C58/C63</f>
-        <v>0.11608075182735816</v>
-      </c>
-      <c r="F58">
-        <f>F63*D58</f>
-        <v>1.2674391210222659E-2</v>
-      </c>
-      <c r="H58">
-        <f>H53</f>
-        <v>1.9837500000000004E-2</v>
-      </c>
-      <c r="I58">
-        <f>1/H58</f>
-        <v>50.409577819785746</v>
-      </c>
-      <c r="J58">
-        <f>H58/H63</f>
-        <v>0.18168540612174808</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="7">
-        <f t="shared" ref="B59:B63" si="5">1/C59</f>
-        <v>45.004500450045008</v>
-      </c>
-      <c r="C59">
-        <v>2.222E-2</v>
-      </c>
-      <c r="D59">
-        <f>C59/C63</f>
-        <v>0.38670379394361298</v>
-      </c>
-      <c r="F59">
-        <f>F63*D59</f>
-        <v>4.2222634586378933E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="7">
-        <f t="shared" si="5"/>
-        <v>35.001750087504377</v>
-      </c>
-      <c r="C62">
-        <v>2.8570000000000002E-2</v>
-      </c>
-      <c r="D62">
-        <f>C62/C63</f>
-        <v>0.49721545422902896</v>
-      </c>
-      <c r="F62">
-        <f>F63*D62</f>
-        <v>5.4288959051883266E-2</v>
-      </c>
-      <c r="H62">
-        <f>H54</f>
-        <v>8.9348484848484858E-2</v>
-      </c>
-      <c r="I62">
-        <f>1/H62</f>
-        <v>11.192131592335084</v>
-      </c>
-      <c r="J62">
-        <f>H62/H63</f>
-        <v>0.81831459387825189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="7">
-        <f t="shared" si="5"/>
-        <v>17.40341106856944</v>
-      </c>
-      <c r="C63">
-        <v>5.7459999999999997E-2</v>
-      </c>
-      <c r="D63">
-        <f>D58+D59+D62</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="F63">
-        <f>H52</f>
-        <v>0.10918598484848485</v>
-      </c>
-      <c r="H63">
-        <f>H58+H62</f>
-        <v>0.10918598484848487</v>
-      </c>
-      <c r="I63">
-        <f>1/H63</f>
-        <v>9.1586846186136377</v>
-      </c>
-      <c r="J63">
-        <f>J58+J62</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y78"/>
